--- a/data/trans_bre/P27F_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27F_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,161 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>86,92%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>59,97%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-24,12%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.890649664647015</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.401396232122278</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.5929074515602116</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.8691718301278275</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.5904471975588788</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2272364434628115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 5,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 3,2</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 1,51</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,1; 226,81</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-16,77; 208,29</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-69,57; 102,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.5761048771898194</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5087352369981966</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.559755816621424</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.05095701507642875</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1746819859047258</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6887554786014614</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.178025460011037</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.17360037163866</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.527752864768682</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>2.268134648755983</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.096821302460201</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.095675351878154</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>325,46%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-5,31%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>299,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 5,87</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 2,48</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 4,58</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-18,11; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-81,89; 290,78</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>41,06; 1076,41</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.776552910100828</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1718394220588084</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.569804735760823</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>3.254571510076072</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.07385265076393932</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.985138249594744</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.4367879875369191</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.023288668959685</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.019123168132949</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1810583871897172</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8178402857610341</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.4075534494958372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 6,88</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.865157323950414</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.502256959054342</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.531379752896118</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="6" t="n">
+        <v>2.798812640719581</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>10.99150406648668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,34 +773,16 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>106,86%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>46,16%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>64,58%</t>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="n">
+        <v>2.701942991857565</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr"/>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -877,42 +790,118 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 4,76</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 2,58</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 2,39</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>16,36; 248,14</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-16,12; 158,43</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-12,44; 218,36</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>0.5856000843017249</v>
+      </c>
+      <c r="F11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>6.584384964982116</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.923016318653849</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.054725854853162</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.052128340369356</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.068566214764836</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4465144870782815</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.6630378376745453</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.8493508171878538</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.5476647291514999</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1956083154552018</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.1636029494081172</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1769254118082501</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1115913403853152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.7626522589301</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.521796790839389</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.368444024088648</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2.481372315309501</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.53410656771116</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.2628814203377</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +910,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
